--- a/RegisterData.xlsx
+++ b/RegisterData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A2FBFF-3F77-465D-9E56-0BD9E3A182F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="23955" windowHeight="14115"/>
+    <workbookView xWindow="28680" yWindow="-3945" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterData" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="98">
   <si>
     <t>ACNotes</t>
   </si>
@@ -312,12 +313,15 @@
   </si>
   <si>
     <t>Request12</t>
+  </si>
+  <si>
+    <t>MISSING FIELD: Customer Zip Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,9 +388,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -424,9 +428,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,7 +465,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,7 +500,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -669,45 +673,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.54296875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="43.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="43.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="27" max="27" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +794,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -813,7 +817,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -836,7 +840,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -859,7 +863,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>69</v>
       </c>
@@ -882,7 +886,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
@@ -956,7 +960,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
@@ -991,16 +995,16 @@
         <v>24</v>
       </c>
       <c r="X7" s="1">
-        <v>10048</v>
+        <v>10023</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
@@ -1056,7 +1060,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -1079,7 +1083,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -1102,7 +1106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -1125,7 +1129,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -1148,7 +1152,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>63</v>
       </c>
@@ -1222,7 +1226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>64</v>
       </c>
@@ -1257,16 +1261,16 @@
         <v>24</v>
       </c>
       <c r="X14" s="1">
-        <v>10048</v>
+        <v>10023</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -1325,49 +1329,52 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="43.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="43.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="27" max="27" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1450,7 +1457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -1473,7 +1480,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -1496,7 +1503,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -1519,7 +1526,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>69</v>
       </c>
@@ -1542,7 +1549,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
@@ -1616,7 +1623,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
@@ -1660,7 +1667,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
@@ -1716,7 +1723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -1739,7 +1746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -1762,7 +1769,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -1785,7 +1792,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -1808,7 +1815,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>63</v>
       </c>
@@ -1882,7 +1889,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>64</v>
       </c>
@@ -1926,7 +1933,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -1985,17 +1992,23 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>